--- a/dist/document/dest/2020/10/doctors/nth.xlsx
+++ b/dist/document/dest/2020/10/doctors/nth.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>84</v>
       </c>
-      <c r="C2" s="1">
-        <v>280140</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -416,7 +413,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="1">
-        <v>280140</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nth.xlsx
+++ b/dist/document/dest/2020/10/doctors/nth.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,26 +399,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2799000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B3" s="1">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2098800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B3" s="1">
-        <v>84</v>
-      </c>
-      <c r="C3" s="1">
-        <v>NaN</v>
+      <c r="B4" s="1">
+        <v>270</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4897800</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>